--- a/secure/26P-Alessia.xlsx
+++ b/secure/26P-Alessia.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Alessia-429503</t>
+    <t>26P-Alessia-369296</t>
   </si>
   <si>
-    <t>26P-Alessia-914197</t>
+    <t>26P-Alessia-462790</t>
   </si>
   <si>
-    <t>26P-Alessia-113249</t>
+    <t>26P-Alessia-1053281</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F35f5a10"/>
+        <fgColor rgb="F2674429"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:VT503"/>
+  <dimension ref="A1:RE503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -901,11 +901,14 @@
       </c>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:473" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>-0.704</v>
       </c>
       <c r="M76" s="4"/>
+      <c r="RE76" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
@@ -1645,14 +1648,11 @@
       </c>
       <c r="M199" s="4"/>
     </row>
-    <row r="200" spans="1:592" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>-0.208</v>
       </c>
       <c r="M200" s="4"/>
-      <c r="VT200" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
@@ -1792,11 +1792,14 @@
       </c>
       <c r="M223" s="4"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>-0.112</v>
       </c>
       <c r="M224" s="4"/>
+      <c r="KL224" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
@@ -2206,14 +2209,11 @@
       </c>
       <c r="M292" s="4"/>
     </row>
-    <row r="293" spans="1:580" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>0.164</v>
       </c>
       <c r="M293" s="4"/>
-      <c r="VH293" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
@@ -2755,14 +2755,11 @@
       </c>
       <c r="M383" s="4"/>
     </row>
-    <row r="384" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>0.528</v>
       </c>
       <c r="M384" s="4"/>
-      <c r="DS384" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
@@ -3166,11 +3163,14 @@
       </c>
       <c r="M451" s="4"/>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:330" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>0.8</v>
       </c>
       <c r="M452" s="4"/>
+      <c r="LR452" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
